--- a/biology/Médecine/Érythème_noueux/Érythème_noueux.xlsx
+++ b/biology/Médecine/Érythème_noueux/Érythème_noueux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89ryth%C3%A8me_noueux</t>
+          <t>Érythème_noueux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'érythème noueux est une dermo-hypodermite septale. C'est la variante clinico-pathologique la plus fréquente des panniculites[1]. C'est une hypodermite nodulaire aiguë, considérée comme une réaction d'hypersensibilité non spécifique à divers allergènes.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'érythème noueux est une dermo-hypodermite septale. C'est la variante clinico-pathologique la plus fréquente des panniculites. C'est une hypodermite nodulaire aiguë, considérée comme une réaction d'hypersensibilité non spécifique à divers allergènes.
 La lésion élémentaire est une nouure : c'est-à-dire un nodule ferme enchâssé dans la peau, arrondi, sensible à la palpation, parfois rouge, et chaud. Ces lésions dermatologiques, qui évoluent rapidement, apparaissent au niveau des jambes en nombre variable.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89ryth%C3%A8me_noueux</t>
+          <t>Érythème_noueux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,31 +524,371 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Érythème noueux est souvent suivi de la sarcoïdose (maladie assez rare) .
-Terrain
-Atteinte fréquente des femmes  (25 à 70 ans).
-Positif
-Le diagnostic est simplement clinique.
-Phase pré-éruptive
-Elle peut associer une fièvre, une asthénie, des arthralgies.
-Phase éruptive
-Elle est caractérisée par l'apparition de nodules arrondis dermo-hypodermiques (ou nouures), rouge vif ou violacés, bilatéraux, symétriques, localisés à la face d'extension des membres, adhérant au plan profond et à la peau.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Érythème_noueux</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ryth%C3%A8me_noueux</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Terrain</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atteinte fréquente des femmes  (25 à 70 ans).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Érythème_noueux</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ryth%C3%A8me_noueux</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Positif</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le diagnostic est simplement clinique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Érythème_noueux</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ryth%C3%A8me_noueux</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Positif</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Phase pré-éruptive</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle peut associer une fièvre, une asthénie, des arthralgies.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Érythème_noueux</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ryth%C3%A8me_noueux</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Positif</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Phase éruptive</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est caractérisée par l'apparition de nodules arrondis dermo-hypodermiques (ou nouures), rouge vif ou violacés, bilatéraux, symétriques, localisés à la face d'extension des membres, adhérant au plan profond et à la peau.
 Évolution en plusieurs poussées, disparition en 1 à 6 semaines sans séquelles.
-Histologie
-La lésion biopsiée montre une infiltration inflammatoire du derme, avec accumulation de polynucléaires, de lymphocytes, et de macrophages. L'érythème noueux est cependant « la seule hypodermite qui ne requiert pas de biopsie dans sa forme clinique typique » selon Velter &amp; Lipsker (2016)[2].
-Biologie
-Syndrome inflammatoire non spécifique.
-Étiologie
-Les formes dites idiopathiques sont assez fréquentes[3], sinon de nombreuses causes peuvent être évoquées :
-Maladies inflammatoires
-Sarcoïdose (Syndrome de Löfgren)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Érythème_noueux</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ryth%C3%A8me_noueux</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Positif</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Histologie</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La lésion biopsiée montre une infiltration inflammatoire du derme, avec accumulation de polynucléaires, de lymphocytes, et de macrophages. L'érythème noueux est cependant « la seule hypodermite qui ne requiert pas de biopsie dans sa forme clinique typique » selon Velter &amp; Lipsker (2016).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Érythème_noueux</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ryth%C3%A8me_noueux</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Positif</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Syndrome inflammatoire non spécifique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Érythème_noueux</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ryth%C3%A8me_noueux</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Étiologie</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les formes dites idiopathiques sont assez fréquentes, sinon de nombreuses causes peuvent être évoquées :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Érythème_noueux</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ryth%C3%A8me_noueux</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Étiologie</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Maladies inflammatoires</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Sarcoïdose (Syndrome de Löfgren)
 Maladie de Behçet
-Maladie de Takayasu[4]
-Entéropathies inflammatoires (MICI): maladie de Crohn, rectocolite hémorragique
-Infections
-streptococcique
+Maladie de Takayasu
+Entéropathies inflammatoires (MICI): maladie de Crohn, rectocolite hémorragique</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Érythème_noueux</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ryth%C3%A8me_noueux</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Étiologie</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Infections</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>streptococcique
 Primo-infection de la tuberculose
 Infection digestive à "Yersinia enterocolitica"
 Infection digestive à "Yersinia pseudotuberculosis"
@@ -544,49 +896,128 @@
 Infection à "Salmonelle" (Salmonellose)
 Maladie des griffes du chat
 Hépatites (Virus A, B, C)
-Mycoses profondes, par exemple due à certains trichophytons (complication[5]).
+Mycoses profondes, par exemple due à certains trichophytons (complication).
 Brucellose
 Cytomégalovirus
 Herpès
 Mononucléose
-Maladie de Hansen (Lèpre)[6]
-Médicaments
-Allergie à des Sulfamidés, des antalgiques et AINS, ou à dérivés iodés.
-Autres
-Lymphome hodgkinien, leucémies lymphoïdes
+Maladie de Hansen (Lèpre)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Érythème_noueux</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ryth%C3%A8me_noueux</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Étiologie</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Médicaments</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Allergie à des Sulfamidés, des antalgiques et AINS, ou à dérivés iodés.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Érythème_noueux</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ryth%C3%A8me_noueux</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Étiologie</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lymphome hodgkinien, leucémies lymphoïdes
 Maladies inflammatoires chroniques de l'intestin (Maladie de Crohn)
 Au cours de la grossesse
-mutation génétique GATA2[7],[8]
-Indiquons que dans 20 à 25 % des cas, aucune étiologie n'est retrouvée.[réf. nécessaire][3]
+mutation génétique GATA2,
+Indiquons que dans 20 à 25 % des cas, aucune étiologie n'est retrouvée.[réf. nécessaire]
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>%C3%89ryth%C3%A8me_noueux</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89ryth%C3%A8me_noueux</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Érythème_noueux</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ryth%C3%A8me_noueux</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Traitement de la cause (quand elle est connue)
 Antalgiques, anti-inflammatoire non stéroïdiens
